--- a/Tables/qualitative_analysis_tables.xlsx
+++ b/Tables/qualitative_analysis_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/AIRE/Appendix/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AFF07BCE80BE527D3FB2781F7E34EFAB9592B020" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF762914-3C3B-44DD-B5E1-A04AAAF91D3D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_AFF07BCE80BE527D3FB2781F7E34EFAB9592B020" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8464CA7-A430-4116-818E-0E08E5EBA6AA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
   <si>
     <t>model</t>
   </si>
@@ -37,16 +37,7 @@
     <t>gemma</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>norm_ratio2</t>
-  </si>
-  <si>
     <t>l</t>
-  </si>
-  <si>
-    <t>rds2plus</t>
   </si>
   <si>
     <t>type</t>
@@ -71,6 +62,12 @@
   </si>
   <si>
     <t>RDS</t>
+  </si>
+  <si>
+    <t>norm_ratio</t>
+  </si>
+  <si>
+    <t>Llama</t>
   </si>
 </sst>
 </file>
@@ -129,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,90 +453,90 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,90 +853,90 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1244,89 +1244,89 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.81</v>
@@ -1508,90 +1508,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.73</v>
